--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5495,4 +5496,2644 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1777</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8136,4 +8137,2416 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10549,4 +10550,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10558,7 +10559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10569,17 +10570,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10589,14 +10610,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.04</v>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -10605,14 +10648,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.99</v>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -10621,14 +10686,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.83</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -10637,13 +10724,1137 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>37.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11753,7 +11754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11764,17 +11765,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11784,14 +11805,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.06</v>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -11800,14 +11843,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.04</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -11816,14 +11881,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.99</v>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11832,14 +11919,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.83</v>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -11848,13 +11957,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>69</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>37.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12570,7 +12571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12581,17 +12582,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12601,14 +12622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.79</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -12617,14 +12660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.06</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -12633,14 +12698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.04</v>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12649,14 +12736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>68</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.99</v>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -12665,14 +12774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>61</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.83</v>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -12681,13 +12812,2083 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7519</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3375</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>69</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>37.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>18.32</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>2.79</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>10.06</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>10.04</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>20.99</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>36.83</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>61</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>69</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>37.72</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6594</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2783,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3599,7 +4242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4793,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7205,7 +7848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9845,7 +10488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12219,7 +12862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002074-国轩高科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>9.77</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>18.32</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>2.79</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>10.06</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>10.04</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>20.99</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>36.83</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2708 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>61</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>69</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>37.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2349</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>382.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3644</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6961</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6388</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9765</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8878</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8761</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8691</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6835</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3312,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015829</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +4297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3426,7 +6481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4242,7 +7297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5436,7 +8491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7848,7 +10903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10488,7 +13543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12860,2682 +15915,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证新能源汽车ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>82.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.5744</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161028</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证新能源汽车指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.2457</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>55.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.2349</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009199</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家价值优势一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>47.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.1304</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>510500</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证500ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>382.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.6001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>400015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方新能源汽车主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>47.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.3644</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501057</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富中证新能源汽车产业指数LOFA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>58.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.9411</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>213003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈策略增长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>18.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.6961</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005939</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>33.65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.6388</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515700</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>平安中证新能源汽车产业ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>47.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.6180</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519181</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家和谐增长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1475</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501058</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证新能源汽车产业指数LOFC</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>29.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9765</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9402</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519196</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>18.77</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.8878</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005940</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.8761</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>159806</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰中证新能源汽车ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8691</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519195</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7098</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>161912</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.6835</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5497</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发中证环保产业ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>22.21</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>99.50</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>512500</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>54.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>97.36</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3728</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159922</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实中证500ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>36.78</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>97.92</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2575</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>398051</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中海环保新能源混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>64.20</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>510510</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发中证500ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>96.50</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2312</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>159820</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>天弘中证500ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>24.08</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1565</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000794</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1490</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000796</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1490</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>510590</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>平安中证500ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>19.49</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>97.24</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1345</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>163114</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>申万菱信中证环保产业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>510580</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>易方达中证500ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>164905</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>交银国证新能源指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>510560</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国寿安保中证500ETF</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>512510</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证500ETF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>160634</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>鹏华中证环保产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>000549</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华安大国新经济股票</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007770</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>同泰开泰混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>510530</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>工银瑞信中证500ETF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>98.96</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>501036</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>161913</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>164304</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>新华中证环保产业指数</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>95.07</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>159982</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>鹏华中证500ETF</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>165511</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>159918</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>嘉实中创400ETF</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>99.18</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>510570</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>兴业中证500ETF</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>98.78</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>515530</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>泰康中证500ETF</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>97.11</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>501037</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>515190</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>中银证券中证500ETF</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>98.92</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006857</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>74.97</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007943</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>富安达中证 500 指数增强</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>159935</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>景顺长城中证500ETF</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>98.13</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>660011</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>农银中证500指数</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>159932</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>大成中证500深市ETF</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>010419</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>申万菱信中证环保产业指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>006611</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>人保中证500指数</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>515550</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>中融中证500ETF</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>007771</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>同泰开泰混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>510550</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>方正富邦中证500ETF</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>006858</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>74.97</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>166107</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>166108</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>